--- a/Data Files/keyword.xlsx
+++ b/Data Files/keyword.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D34ED78-1F0B-0D43-8858-C494FACF479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63FD5CE-FD8B-F643-948D-B6129D3E7EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1751827-A492-9042-90C0-120D0D32703F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15140" xr2:uid="{F1751827-A492-9042-90C0-120D0D32703F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>TestCase</t>
   </si>
@@ -59,6 +59,54 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>OMS</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>REDX</t>
+  </si>
+  <si>
+    <t>MOKAM</t>
+  </si>
+  <si>
+    <t>PAYWELL</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -410,58 +458,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E558B464-1009-CA48-B34E-9F0199A6EF18}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{CD6B0608-1BD8-5E45-99FB-A1B7A4637933}">
+      <formula1>"OMS,CDS,CMT,SAP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C5" xr:uid="{ACE19F0D-2D51-2D4F-B0DF-5B86B4F93D24}">
+      <formula1>"APP,WEB,API"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{3849D2A3-3B10-9D41-9077-724FA0118EC6}">
+      <formula1>"REDX,MOKAM,PAYWELL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{403C1504-CEF7-9D4F-93E5-D2DB5698DF96}">
+      <formula1>"Valid,Invalid"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>